--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6423476666666667</v>
+        <v>2.29903</v>
       </c>
       <c r="H2">
-        <v>1.927043</v>
+        <v>6.89709</v>
       </c>
       <c r="I2">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="J2">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.32975033333333</v>
+        <v>29.80827733333334</v>
       </c>
       <c r="N2">
-        <v>48.989251</v>
+        <v>89.42483200000001</v>
       </c>
       <c r="O2">
-        <v>0.3418592381614251</v>
+        <v>0.4866975737940222</v>
       </c>
       <c r="P2">
-        <v>0.3418592381614251</v>
+        <v>0.4866975737940221</v>
       </c>
       <c r="Q2">
-        <v>10.48937702386589</v>
+        <v>68.53012383765335</v>
       </c>
       <c r="R2">
-        <v>94.40439321479299</v>
+        <v>616.7711145388801</v>
       </c>
       <c r="S2">
-        <v>0.004010811857288061</v>
+        <v>0.01983682840194254</v>
       </c>
       <c r="T2">
-        <v>0.004010811857288062</v>
+        <v>0.01983682840194254</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6423476666666667</v>
+        <v>2.29903</v>
       </c>
       <c r="H3">
-        <v>1.927043</v>
+        <v>6.89709</v>
       </c>
       <c r="I3">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="J3">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>80.453003</v>
       </c>
       <c r="O3">
-        <v>0.5614211638667195</v>
+        <v>0.437868100938039</v>
       </c>
       <c r="P3">
-        <v>0.5614211638667195</v>
+        <v>0.437868100938039</v>
       </c>
       <c r="Q3">
-        <v>17.22626625112544</v>
+        <v>61.65462249569666</v>
       </c>
       <c r="R3">
-        <v>155.036396260129</v>
+        <v>554.8916024612701</v>
       </c>
       <c r="S3">
-        <v>0.006586788975133178</v>
+        <v>0.01784663587550232</v>
       </c>
       <c r="T3">
-        <v>0.006586788975133179</v>
+        <v>0.01784663587550232</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6423476666666667</v>
+        <v>2.29903</v>
       </c>
       <c r="H4">
-        <v>1.927043</v>
+        <v>6.89709</v>
       </c>
       <c r="I4">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="J4">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.620050333333333</v>
+        <v>4.620050333333332</v>
       </c>
       <c r="N4">
         <v>13.860151</v>
       </c>
       <c r="O4">
-        <v>0.09671959797185539</v>
+        <v>0.07543432526793886</v>
       </c>
       <c r="P4">
-        <v>0.09671959797185539</v>
+        <v>0.07543432526793886</v>
       </c>
       <c r="Q4">
-        <v>2.967678551499222</v>
+        <v>10.62163431784333</v>
       </c>
       <c r="R4">
-        <v>26.709106963493</v>
+        <v>95.59470886058999</v>
       </c>
       <c r="S4">
-        <v>0.00113474806901218</v>
+        <v>0.003074553576035929</v>
       </c>
       <c r="T4">
-        <v>0.00113474806901218</v>
+        <v>0.003074553576035929</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>66.829058</v>
       </c>
       <c r="I5">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234065</v>
       </c>
       <c r="J5">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234066</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.32975033333333</v>
+        <v>29.80827733333334</v>
       </c>
       <c r="N5">
-        <v>48.989251</v>
+        <v>89.42483200000001</v>
       </c>
       <c r="O5">
-        <v>0.3418592381614251</v>
+        <v>0.4866975737940222</v>
       </c>
       <c r="P5">
-        <v>0.3418592381614251</v>
+        <v>0.4866975737940221</v>
       </c>
       <c r="Q5">
-        <v>363.7672773839509</v>
+        <v>664.0196982631396</v>
       </c>
       <c r="R5">
-        <v>3273.905496455558</v>
+        <v>5976.177284368257</v>
       </c>
       <c r="S5">
-        <v>0.1390933042167672</v>
+        <v>0.192208098750265</v>
       </c>
       <c r="T5">
-        <v>0.1390933042167672</v>
+        <v>0.192208098750265</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>66.829058</v>
       </c>
       <c r="I6">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234065</v>
       </c>
       <c r="J6">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234066</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>80.453003</v>
       </c>
       <c r="O6">
-        <v>0.5614211638667195</v>
+        <v>0.437868100938039</v>
       </c>
       <c r="P6">
-        <v>0.5614211638667195</v>
+        <v>0.437868100938039</v>
       </c>
       <c r="Q6">
         <v>597.3998226401304</v>
@@ -818,10 +818,10 @@
         <v>5376.598403761174</v>
       </c>
       <c r="S6">
-        <v>0.228427130299083</v>
+        <v>0.1729242135493122</v>
       </c>
       <c r="T6">
-        <v>0.228427130299083</v>
+        <v>0.1729242135493122</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>66.829058</v>
       </c>
       <c r="I7">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234065</v>
       </c>
       <c r="J7">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234066</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.620050333333333</v>
+        <v>4.620050333333332</v>
       </c>
       <c r="N7">
         <v>13.860151</v>
       </c>
       <c r="O7">
-        <v>0.09671959797185539</v>
+        <v>0.07543432526793886</v>
       </c>
       <c r="P7">
-        <v>0.09671959797185539</v>
+        <v>0.07543432526793886</v>
       </c>
       <c r="Q7">
         <v>102.9178705630842</v>
       </c>
       <c r="R7">
-        <v>926.2608350677581</v>
+        <v>926.260835067758</v>
       </c>
       <c r="S7">
-        <v>0.03935259593034663</v>
+        <v>0.0297907551238294</v>
       </c>
       <c r="T7">
-        <v>0.03935259593034663</v>
+        <v>0.0297907551238294</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>95.494299</v>
       </c>
       <c r="I8">
-        <v>0.5813946206523698</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="J8">
-        <v>0.5813946206523697</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.32975033333333</v>
+        <v>29.80827733333334</v>
       </c>
       <c r="N8">
-        <v>48.989251</v>
+        <v>89.42483200000001</v>
       </c>
       <c r="O8">
-        <v>0.3418592381614251</v>
+        <v>0.4866975737940222</v>
       </c>
       <c r="P8">
-        <v>0.3418592381614251</v>
+        <v>0.4866975737940221</v>
       </c>
       <c r="Q8">
-        <v>519.7993536422276</v>
+        <v>948.8401827814188</v>
       </c>
       <c r="R8">
-        <v>4678.194182780048</v>
+        <v>8539.561645032769</v>
       </c>
       <c r="S8">
-        <v>0.1987551220873699</v>
+        <v>0.2746526466418146</v>
       </c>
       <c r="T8">
-        <v>0.1987551220873698</v>
+        <v>0.2746526466418145</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>95.494299</v>
       </c>
       <c r="I9">
-        <v>0.5813946206523698</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="J9">
-        <v>0.5813946206523697</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>80.453003</v>
       </c>
       <c r="O9">
-        <v>0.5614211638667195</v>
+        <v>0.437868100938039</v>
       </c>
       <c r="P9">
-        <v>0.5614211638667195</v>
+        <v>0.437868100938039</v>
       </c>
       <c r="Q9">
         <v>853.6447915477663</v>
@@ -1004,10 +1004,10 @@
         <v>7682.803123929896</v>
       </c>
       <c r="S9">
-        <v>0.3264072445925033</v>
+        <v>0.2470972515132245</v>
       </c>
       <c r="T9">
-        <v>0.3264072445925033</v>
+        <v>0.2470972515132245</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>95.494299</v>
       </c>
       <c r="I10">
-        <v>0.5813946206523698</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="J10">
-        <v>0.5813946206523697</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.620050333333333</v>
+        <v>4.620050333333332</v>
       </c>
       <c r="N10">
         <v>13.860151</v>
       </c>
       <c r="O10">
-        <v>0.09671959797185539</v>
+        <v>0.07543432526793886</v>
       </c>
       <c r="P10">
-        <v>0.09671959797185539</v>
+        <v>0.07543432526793886</v>
       </c>
       <c r="Q10">
-        <v>147.0628226421277</v>
+        <v>147.0628226421276</v>
       </c>
       <c r="R10">
         <v>1323.565403779149</v>
       </c>
       <c r="S10">
-        <v>0.05623225397249658</v>
+        <v>0.04256901656807353</v>
       </c>
       <c r="T10">
-        <v>0.05623225397249657</v>
+        <v>0.04256901656807353</v>
       </c>
     </row>
   </sheetData>
